--- a/excel/demo.xlsx
+++ b/excel/demo.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="工作表4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +20,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,6 +417,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FF0000"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -425,27 +445,80 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>520</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>这是一个合并单元格</t>
+        </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44716.65992996134</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="50" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="100" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="000000FF"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="008B008B"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excel/demo.xlsx
+++ b/excel/demo.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,7 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C3"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excel/demo.xlsx
+++ b/excel/demo.xlsx
@@ -420,7 +420,9 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
